--- a/GSP药店管理系统项目-需求跟踪矩阵(RTM).xlsx
+++ b/GSP药店管理系统项目-需求跟踪矩阵(RTM).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11580" tabRatio="486" activeTab="2"/>
+    <workbookView windowWidth="21795" windowHeight="13096" tabRatio="486" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求跟踪矩阵封面" sheetId="69" r:id="rId1"/>
@@ -37,123 +37,136 @@
   </externalReferences>
   <definedNames>
     <definedName name="_1_16">#REF!</definedName>
-    <definedName name="_C3_ﾌﾛｰ記述ﾐｽ">'[8]03MY整体日程'!$I$2:$I$9</definedName>
+    <definedName name="_C3_ﾌﾛｰ記述ﾐｽ">'[1]03MY整体日程'!$I$2:$I$9</definedName>
+    <definedName name="_ML1">[11]分类数据!$C$3</definedName>
+    <definedName name="_ML10">[11]分类数据!$C$12</definedName>
+    <definedName name="_ML2">[11]分类数据!$C$4</definedName>
+    <definedName name="_ML3">[11]分类数据!$C$5</definedName>
+    <definedName name="_ML4">[11]分类数据!$C$6</definedName>
+    <definedName name="_ML5">[11]分类数据!$C$7</definedName>
+    <definedName name="_ML6">[11]分类数据!$C$8</definedName>
+    <definedName name="_ML7">[11]分类数据!$C$9</definedName>
+    <definedName name="_ML8">[11]分类数据!$C$10</definedName>
+    <definedName name="_ML9">[11]分类数据!$C$11</definedName>
     <definedName name="○×">#REF!</definedName>
-    <definedName name="a">'[8]03MY整体日程'!$A$2:$A$10</definedName>
-    <definedName name="Activity">'[21]Data Definition'!#REF!</definedName>
-    <definedName name="as">'[16]03MY整体日程'!$B$2:$B$11</definedName>
-    <definedName name="Base留用">[20]Define!$E$3:$E$5</definedName>
-    <definedName name="BUG状态">[7]Data!$G$2:$G$19</definedName>
-    <definedName name="BUG状態">'[8]03MY整体日程'!$G$2:$G$16</definedName>
-    <definedName name="CMRight">[1]信息定义!$L$6:$L$10</definedName>
-    <definedName name="Designer">[20]Define!$D$3:$D$22</definedName>
-    <definedName name="e.total">[5]同行评审!$M$8</definedName>
-    <definedName name="effort.ta">[4]引言!#REF!</definedName>
-    <definedName name="IS">'[8]03MY整体日程'!$D$2:$D$4</definedName>
-    <definedName name="Judgment">'[8]03MY整体日程'!$I$2:$I$4</definedName>
+    <definedName name="a">'[1]03MY整体日程'!$A$2:$A$10</definedName>
+    <definedName name="Activity">'[2]Data Definition'!#REF!</definedName>
+    <definedName name="as">'[3]03MY整体日程'!$B$2:$B$11</definedName>
+    <definedName name="Base留用">[4]Define!$E$3:$E$5</definedName>
+    <definedName name="BUG状态">[5]Data!$G$2:$G$19</definedName>
+    <definedName name="BUG状態">'[1]03MY整体日程'!$G$2:$G$16</definedName>
+    <definedName name="CMRight">[6]信息定义!$L$6:$L$10</definedName>
+    <definedName name="Designer">[4]Define!$D$3:$D$22</definedName>
+    <definedName name="e.total">[7]同行评审!$M$8</definedName>
+    <definedName name="effort.ta">[8]引言!#REF!</definedName>
+    <definedName name="IS">'[1]03MY整体日程'!$D$2:$D$4</definedName>
+    <definedName name="Judgment">'[1]03MY整体日程'!$I$2:$I$4</definedName>
     <definedName name="KOUMOKUSUU">#REF!</definedName>
-    <definedName name="List">[15]Data!$C$2:$C$6</definedName>
-    <definedName name="MainReason">[18]分类数据!$G$2:$G$20</definedName>
-    <definedName name="MilestoneName">[1]信息定义!$D$6:$D$15</definedName>
-    <definedName name="_ML1">[2]分类数据!$C$3</definedName>
-    <definedName name="_ML10">[2]分类数据!$C$12</definedName>
-    <definedName name="_ML2">[2]分类数据!$C$4</definedName>
-    <definedName name="_ML3">[2]分类数据!$C$5</definedName>
-    <definedName name="_ML4">[2]分类数据!$C$6</definedName>
-    <definedName name="_ML5">[2]分类数据!$C$7</definedName>
-    <definedName name="_ML6">[2]分类数据!$C$8</definedName>
-    <definedName name="_ML7">[2]分类数据!$C$9</definedName>
-    <definedName name="_ML8">[2]分类数据!$C$10</definedName>
-    <definedName name="_ML9">[2]分类数据!$C$11</definedName>
-    <definedName name="MODEL">[7]Data!$C$2:$C$6</definedName>
-    <definedName name="MODEL名">'[8]03MY整体日程'!$D$2:$D$4</definedName>
-    <definedName name="MODULE">[7]Data!$F$2:$F$31</definedName>
+    <definedName name="List">[9]Data!$C$2:$C$6</definedName>
+    <definedName name="MainReason">[10]分类数据!$G$2:$G$20</definedName>
+    <definedName name="MilestoneName">[6]信息定义!$D$6:$D$15</definedName>
+    <definedName name="MODEL">[5]Data!$C$2:$C$6</definedName>
+    <definedName name="MODEL名">'[1]03MY整体日程'!$D$2:$D$4</definedName>
+    <definedName name="MODULE">[5]Data!$F$2:$F$31</definedName>
     <definedName name="Module_num">#REF!</definedName>
-    <definedName name="ModuleName">[1]信息定义!$E$6:$E$36</definedName>
-    <definedName name="Ploy">'[8]03MY整体日程'!$C$2:$C$18</definedName>
+    <definedName name="ModuleName">[6]信息定义!$E$6:$E$36</definedName>
+    <definedName name="Ploy">'[1]03MY整体日程'!$C$2:$C$18</definedName>
     <definedName name="Price_CD">#REF!</definedName>
     <definedName name="Price_CD_12">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">设计用RTM!$4:$5</definedName>
-    <definedName name="ProductKind">[1]信息定义!$G$6:$G$32</definedName>
-    <definedName name="Project">[17]Total!#REF!</definedName>
-    <definedName name="ReviewKind">[1]信息定义!$H$6:$H$8</definedName>
-    <definedName name="size.ta">[4]引言!#REF!</definedName>
-    <definedName name="SPEC_Version">[22]信息定义!$H$6:$H$26</definedName>
-    <definedName name="StaffName">[1]信息定义!$F$6:$F$36</definedName>
-    <definedName name="StatOKNG">[1]信息定义!$J$6:$J$11</definedName>
-    <definedName name="StatOpenClose">[1]信息定义!$K$6:$K$10</definedName>
-    <definedName name="StatYesNo">[1]信息定义!$I$6:$I$10</definedName>
+    <definedName name="ProductKind">[6]信息定义!$G$6:$G$32</definedName>
+    <definedName name="Project">[12]Total!#REF!</definedName>
+    <definedName name="ReviewKind">[6]信息定义!$H$6:$H$8</definedName>
+    <definedName name="size.ta">[8]引言!#REF!</definedName>
+    <definedName name="SPEC_Version">[13]信息定义!$H$6:$H$26</definedName>
+    <definedName name="StaffName">[6]信息定义!$F$6:$F$36</definedName>
+    <definedName name="StatOKNG">[6]信息定义!$J$6:$J$11</definedName>
+    <definedName name="StatOpenClose">[6]信息定义!$K$6:$K$10</definedName>
+    <definedName name="StatYesNo">[6]信息定义!$I$6:$I$10</definedName>
     <definedName name="Swing1_Price3">#REF!</definedName>
     <definedName name="Swing1R">#REF!</definedName>
-    <definedName name="t.all">[5]同行评审!#REF!</definedName>
-    <definedName name="t.at">[5]同行评审!#REF!</definedName>
-    <definedName name="t.dd">[5]同行评审!#REF!</definedName>
-    <definedName name="t.it">[5]同行评审!#REF!</definedName>
-    <definedName name="t.pd">[5]同行评审!#REF!</definedName>
-    <definedName name="t.pr">[5]同行评审!#REF!</definedName>
-    <definedName name="t.ra">[5]同行评审!#REF!</definedName>
-    <definedName name="t.sd">[5]同行评审!#REF!</definedName>
-    <definedName name="t.st1">[5]同行评审!#REF!</definedName>
-    <definedName name="t.st2">[5]同行评审!#REF!</definedName>
-    <definedName name="t.st3">[5]同行评审!#REF!</definedName>
-    <definedName name="t.ut">[5]同行评审!#REF!</definedName>
-    <definedName name="TESTER">'[8]03MY整体日程'!$B$2:$B$11</definedName>
-    <definedName name="TestPhase">'[21]Data Definition'!#REF!</definedName>
-    <definedName name="TEST内容">'[8]03MY整体日程'!$E$2:$E$15</definedName>
+    <definedName name="t.all">[7]同行评审!#REF!</definedName>
+    <definedName name="t.at">[7]同行评审!#REF!</definedName>
+    <definedName name="t.dd">[7]同行评审!#REF!</definedName>
+    <definedName name="t.it">[7]同行评审!#REF!</definedName>
+    <definedName name="t.pd">[7]同行评审!#REF!</definedName>
+    <definedName name="t.pr">[7]同行评审!#REF!</definedName>
+    <definedName name="t.ra">[7]同行评审!#REF!</definedName>
+    <definedName name="t.sd">[7]同行评审!#REF!</definedName>
+    <definedName name="t.st1">[7]同行评审!#REF!</definedName>
+    <definedName name="t.st2">[7]同行评审!#REF!</definedName>
+    <definedName name="t.st3">[7]同行评审!#REF!</definedName>
+    <definedName name="t.ut">[7]同行评审!#REF!</definedName>
+    <definedName name="TESTER">'[1]03MY整体日程'!$B$2:$B$11</definedName>
+    <definedName name="TestPhase">'[2]Data Definition'!#REF!</definedName>
+    <definedName name="TEST内容">'[1]03MY整体日程'!$E$2:$E$15</definedName>
     <definedName name="Total.type">#REF!</definedName>
-    <definedName name="tp.ra">[5]同行评审!#REF!</definedName>
-    <definedName name="Version">'[8]03MY整体日程'!$D$2:$D$10</definedName>
-    <definedName name="WORKDAYS">'[6]1.概述'!$H$4</definedName>
+    <definedName name="tp.ra">[7]同行评审!#REF!</definedName>
+    <definedName name="Version">'[1]03MY整体日程'!$D$2:$D$10</definedName>
+    <definedName name="WORKDAYS">'[14]1.概述'!$H$4</definedName>
     <definedName name="World_MD">#REF!</definedName>
     <definedName name="World_MD_R">#REF!</definedName>
-    <definedName name="World_Ver">[10]モデルデータ!$M$3</definedName>
-    <definedName name="y">[14]Remark!$C$6:$C$14</definedName>
-    <definedName name="イベント">'[8]03MY整体日程'!$A$2:$A$7</definedName>
+    <definedName name="World_Ver">[15]モデルデータ!$M$3</definedName>
+    <definedName name="y">[16]Remark!$C$6:$C$14</definedName>
+    <definedName name="イベント">'[1]03MY整体日程'!$A$2:$A$7</definedName>
     <definedName name="ファイル名">#REF!</definedName>
     <definedName name="モジュール">#REF!</definedName>
-    <definedName name="ﾓｼﾞｭｰﾙｶﾃｺﾞﾘ">[11]ﾕｰｻﾞｰ登録!$C$8:$C$57</definedName>
-    <definedName name="ﾓﾃﾞﾙ">[11]ﾕｰｻﾞｰ登録!$B$8:$B$27</definedName>
-    <definedName name="不具合曲線_0319以降">[12]モデルデータ!$M$3</definedName>
-    <definedName name="不具合曲線_全体">[12]モデルデータ!$M$3</definedName>
+    <definedName name="ﾓｼﾞｭｰﾙｶﾃｺﾞﾘ">[17]ﾕｰｻﾞｰ登録!$C$8:$C$57</definedName>
+    <definedName name="ﾓﾃﾞﾙ">[17]ﾕｰｻﾞｰ登録!$B$8:$B$27</definedName>
+    <definedName name="不具合曲線_0319以降">[18]モデルデータ!$M$3</definedName>
+    <definedName name="不具合曲線_全体">[18]モデルデータ!$M$3</definedName>
     <definedName name="不具合要因">#REF!</definedName>
-    <definedName name="不具合主要原因">'[8]03MY整体日程'!$H$2:$H$20</definedName>
-    <definedName name="测试机能">[9]分类数据!$I$2:$I$30</definedName>
-    <definedName name="测试手法">[7]Data!$D$2:$D$16</definedName>
-    <definedName name="担当">[3]分类数据!$D$3</definedName>
-    <definedName name="担当者">[7]Data!$B$2:$B$13</definedName>
-    <definedName name="発生部門">[11]不具合ﾘｽﾄ!$B$6:$B$26</definedName>
+    <definedName name="不具合主要原因">'[1]03MY整体日程'!$H$2:$H$20</definedName>
+    <definedName name="测试机能">[19]分类数据!$I$2:$I$30</definedName>
+    <definedName name="测试手法">[5]Data!$D$2:$D$16</definedName>
+    <definedName name="担当">[20]分类数据!$D$3</definedName>
+    <definedName name="担当者">[5]Data!$B$2:$B$13</definedName>
+    <definedName name="発生部門">[17]不具合ﾘｽﾄ!$B$6:$B$26</definedName>
     <definedName name="発生要因">#REF!</definedName>
-    <definedName name="工作产品">[3]分类数据!$E$3:$E$15</definedName>
-    <definedName name="機能分類">[11]ﾕｰｻﾞｰ登録!$E$8:$E$57</definedName>
-    <definedName name="阶段">[3]分类数据!$B$3:$B$14</definedName>
-    <definedName name="結果">[11]不具合ﾘｽﾄ!$AQ$6:$AQ$9</definedName>
-    <definedName name="开发担当者">[9]分类数据!$H$2:$H$18</definedName>
-    <definedName name="开发阶段">[13]Remark!$C$6:$C$14</definedName>
-    <definedName name="開発担当者">'[8]03MY整体日程'!$J$2:$J$105</definedName>
-    <definedName name="客户Tester">[9]分类数据!$J$2:$J$7</definedName>
-    <definedName name="模块">[3]分类数据!$C$3</definedName>
-    <definedName name="模型">'[8]03MY整体日程'!$E$2:$E$6</definedName>
-    <definedName name="评价Version">'[8]03MY整体日程'!$E$2:$E$16</definedName>
-    <definedName name="评价担当者">[9]分类数据!$B$2:$B$18</definedName>
-    <definedName name="评价阶段">[9]分类数据!$A$2:$A$8</definedName>
-    <definedName name="评价人员">'[8]03MY整体日程'!$F$2:$F$12</definedName>
-    <definedName name="评审类别">[3]分类数据!$F$3:$F$5</definedName>
-    <definedName name="評価担当者">'[8]03MY整体日程'!$B$2:$B$4</definedName>
-    <definedName name="缺陷类型">[9]分类数据!$G$2:$G$20</definedName>
-    <definedName name="上">[14]Remark!$C$6:$C$14</definedName>
-    <definedName name="所属">'[8]03MY整体日程'!$C$2:$C$6</definedName>
-    <definedName name="王">[19]分类数据!$A$2:$A$9</definedName>
-    <definedName name="問題発生工程">[11]不具合ﾘｽﾄ!$AA$6:$AA$17</definedName>
-    <definedName name="現作業工程">[11]不具合ﾘｽﾄ!$Z$6:$Z$17</definedName>
-    <definedName name="修正">[11]不具合ﾘｽﾄ!$T$6:$T$9</definedName>
-    <definedName name="修正優先度">'[8]03MY整体日程'!$K$2:$K$5</definedName>
-    <definedName name="要因TESTGr">[11]不具合ﾘｽﾄ!$R$6:$R$15</definedName>
-    <definedName name="引入活动">[9]分类数据!$F$2:$F$16</definedName>
-    <definedName name="直线1190">'[17]04MOBIS-OEM'!#REF!</definedName>
-    <definedName name="重要度">[11]不具合ﾘｽﾄ!$S$6:$S$11</definedName>
-    <definedName name="状态">[3]分类数据!$G$3:$G$4</definedName>
+    <definedName name="工作产品">[20]分类数据!$E$3:$E$15</definedName>
+    <definedName name="機能分類">[17]ﾕｰｻﾞｰ登録!$E$8:$E$57</definedName>
+    <definedName name="阶段">[20]分类数据!$B$3:$B$14</definedName>
+    <definedName name="結果">[17]不具合ﾘｽﾄ!$AQ$6:$AQ$9</definedName>
+    <definedName name="开发担当者">[19]分类数据!$H$2:$H$18</definedName>
+    <definedName name="开发阶段">[21]Remark!$C$6:$C$14</definedName>
+    <definedName name="開発担当者">'[1]03MY整体日程'!$J$2:$J$105</definedName>
+    <definedName name="客户Tester">[19]分类数据!$J$2:$J$7</definedName>
+    <definedName name="模块">[20]分类数据!$C$3</definedName>
+    <definedName name="模型">'[1]03MY整体日程'!$E$2:$E$6</definedName>
+    <definedName name="评价Version">'[1]03MY整体日程'!$E$2:$E$16</definedName>
+    <definedName name="评价担当者">[19]分类数据!$B$2:$B$18</definedName>
+    <definedName name="评价阶段">[19]分类数据!$A$2:$A$8</definedName>
+    <definedName name="评价人员">'[1]03MY整体日程'!$F$2:$F$12</definedName>
+    <definedName name="评审类别">[20]分类数据!$F$3:$F$5</definedName>
+    <definedName name="評価担当者">'[1]03MY整体日程'!$B$2:$B$4</definedName>
+    <definedName name="缺陷类型">[19]分类数据!$G$2:$G$20</definedName>
+    <definedName name="上">[16]Remark!$C$6:$C$14</definedName>
+    <definedName name="所属">'[1]03MY整体日程'!$C$2:$C$6</definedName>
+    <definedName name="王">[22]分类数据!$A$2:$A$9</definedName>
+    <definedName name="問題発生工程">[17]不具合ﾘｽﾄ!$AA$6:$AA$17</definedName>
+    <definedName name="現作業工程">[17]不具合ﾘｽﾄ!$Z$6:$Z$17</definedName>
+    <definedName name="修正">[17]不具合ﾘｽﾄ!$T$6:$T$9</definedName>
+    <definedName name="修正優先度">'[1]03MY整体日程'!$K$2:$K$5</definedName>
+    <definedName name="要因TESTGr">[17]不具合ﾘｽﾄ!$R$6:$R$15</definedName>
+    <definedName name="引入活动">[19]分类数据!$F$2:$F$16</definedName>
+    <definedName name="直线1190">'[12]04MOBIS-OEM'!#REF!</definedName>
+    <definedName name="重要度">[17]不具合ﾘｽﾄ!$S$6:$S$11</definedName>
+    <definedName name="状态">[20]分类数据!$G$3:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -171,7 +184,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -179,7 +192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Lvxn:
@@ -195,7 +208,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -203,7 +216,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 Lvxn:
@@ -219,7 +232,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -227,7 +240,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -243,7 +256,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -251,7 +264,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -267,7 +280,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -275,7 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -291,7 +304,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -299,7 +312,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -315,7 +328,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -323,7 +336,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -339,7 +352,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -347,7 +360,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -363,7 +376,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -371,7 +384,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -388,7 +401,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -396,7 +409,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -412,7 +425,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>批注:</t>
         </r>
@@ -420,7 +433,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 李春林:
@@ -434,7 +447,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="114">
   <si>
     <t>密级：</t>
   </si>
@@ -711,6 +724,12 @@
     <t>系统生成管理员唯一ID，填写管理员基本信息(职位、姓名、性别、电话号等)</t>
   </si>
   <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
     <t>代萌</t>
   </si>
   <si>
@@ -866,50 +885,50 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="44">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="184" formatCode="yy/m/d"/>
+    <numFmt numFmtId="185" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="186" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="mmmmm"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="190" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="191" formatCode="#\ ??"/>
+    <numFmt numFmtId="192" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="194" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="195" formatCode="0.0%"/>
+    <numFmt numFmtId="196" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="199" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="200" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="201" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="202" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="203" formatCode="mmm"/>
+    <numFmt numFmtId="204" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="190" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="0.0%"/>
-    <numFmt numFmtId="195" formatCode="#\ ??"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="197" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="198" formatCode="m/d"/>
-    <numFmt numFmtId="199" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="200" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="201" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="202" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="203" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="204" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="205" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
-    <numFmt numFmtId="206" formatCode="mmm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="207" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="205" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="206" formatCode="m/d"/>
+    <numFmt numFmtId="207" formatCode="\¥#,##0;\¥\-#,##0"/>
   </numFmts>
   <fonts count="69">
     <font>
@@ -1121,6 +1140,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1129,8 +1162,160 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="36"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS Mincho"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,181 +1329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS Mincho"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="楷体_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="黑体"/>
+      <sz val="10"/>
+      <name val="仿宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1330,13 +1349,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1366,25 +1385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,25 +1433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,7 +1463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,13 +1487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,67 +1541,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,8 +2028,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,21 +2063,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2050,6 +2078,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,52 +2110,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2125,198 +2118,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="39">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="42">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="26" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="203" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="206" fontId="36" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="15" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2325,9 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2345,7 +2360,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,7 +2378,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,7 +2387,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2384,22 +2399,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2411,52 +2420,49 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="56" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2480,13 +2486,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2505,22 +2511,16 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="201" fontId="16" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2529,36 +2529,30 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="201" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="201" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="201" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="201" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
@@ -2589,16 +2583,16 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2622,34 +2616,34 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="16" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="16" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2661,13 +2655,13 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2688,7 +2682,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2707,7 +2701,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2746,10 +2740,10 @@
     <xf numFmtId="14" fontId="29" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2760,15 +2754,15 @@
     <cellStyle name="千位[0]_laroux" xfId="3"/>
     <cellStyle name="普通_laroux" xfId="4"/>
     <cellStyle name="桁区切り_(D)日程計画" xfId="5"/>
-    <cellStyle name="常规_需求跟踪矩阵模板" xfId="6"/>
-    <cellStyle name="標準_(D)日程計画" xfId="7"/>
-    <cellStyle name="常规_GM09MR_RTM_DisplayAPP_Sub_C" xfId="8"/>
-    <cellStyle name="段落标题1" xfId="9"/>
-    <cellStyle name="段落标题2" xfId="10"/>
-    <cellStyle name="표준_Book1" xfId="11"/>
-    <cellStyle name="Normal_#10-Headcount" xfId="12"/>
-    <cellStyle name="Euro" xfId="13"/>
-    <cellStyle name="常规_需求跟踪矩阵" xfId="14"/>
+    <cellStyle name="段落标题2" xfId="6"/>
+    <cellStyle name="段落标题1" xfId="7"/>
+    <cellStyle name="常规_需求跟踪矩阵模板" xfId="8"/>
+    <cellStyle name="常规_需求跟踪矩阵" xfId="9"/>
+    <cellStyle name="常规_GM09MR_RTM_DisplayAPP_Sub_C" xfId="10"/>
+    <cellStyle name="標準_(D)日程計画" xfId="11"/>
+    <cellStyle name="표준_Book1" xfId="12"/>
+    <cellStyle name="Normal_#10-Headcount" xfId="13"/>
+    <cellStyle name="Euro" xfId="14"/>
     <cellStyle name="New Times Roman" xfId="15"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="16" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="17" builtinId="42"/>
@@ -2924,13 +2918,13 @@
 <file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
 <woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookInfo cellCmpFml="0">
-    <open main="119" threadCnt="1"/>
+    <open main="79" threadCnt="1"/>
     <sheetInfos>
       <sheetInfo cellCmpFml="0" sheetStid="69">
-        <open main="1" threadCnt="1"/>
+        <open threadCnt="1"/>
       </sheetInfo>
       <sheetInfo cellCmpFml="0" sheetStid="56">
-        <open main="25" threadCnt="1"/>
+        <open main="16" threadCnt="1"/>
       </sheetInfo>
       <sheetInfo cellCmpFml="0" sheetStid="49">
         <open main="1" threadCnt="1"/>
@@ -2941,185 +2935,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="目录"/>
-      <sheetName val="信息定义"/>
-      <sheetName val="基本信息"/>
-      <sheetName val="目标及策略"/>
-      <sheetName val="缺陷与缺陷预防"/>
-      <sheetName val="工作量"/>
-      <sheetName val="进度"/>
-      <sheetName val="过程性能"/>
-      <sheetName val="需求管理"/>
-      <sheetName val="风险管理"/>
-      <sheetName val="App&amp;M56366&amp;Evol QCBug "/>
-      <sheetName val="总体总结"/>
-      <sheetName val="优秀实践"/>
-      <sheetName val="优秀产品"/>
-      <sheetName val="附录1"/>
-      <sheetName val="附录2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Price不具合指摘"/>
-      <sheetName val="Swing不具合指摘"/>
-      <sheetName val="World不具合指摘"/>
-      <sheetName val="モデルデータ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="記入方法"/>
-      <sheetName val="ﾕｰｻﾞｰ登録"/>
-      <sheetName val="不具合ﾘｽﾄ"/>
-      <sheetName val="不具合対策状況"/>
-      <sheetName val="工程別不具合件数"/>
-      <sheetName val="不具合発生要因"/>
-      <sheetName val="ﾓｼﾞｭｰﾙ・機能別不具合件数"/>
-      <sheetName val="ﾌｧｲﾙ別不具合件数"/>
-      <sheetName val="不具合曲線"/>
-      <sheetName val="不具合曲線 (2)"/>
-      <sheetName val="不具合曲線 (3)"/>
-      <sheetName val="問題点集計用紙"/>
-      <sheetName val="更新履歴"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Price不具合指摘"/>
-      <sheetName val="Swing不具合指摘"/>
-      <sheetName val="World不具合指摘"/>
-      <sheetName val="モデルデータ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="cover"/>
-      <sheetName val="DevSts"/>
-      <sheetName val="Remark"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="cover"/>
-      <sheetName val="DevSts"/>
-      <sheetName val="Remark"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Face"/>
-      <sheetName val="Manual"/>
-      <sheetName val="NAS_Bug"/>
-      <sheetName val="NAS-Status"/>
-      <sheetName val="AGK_Bug"/>
-      <sheetName val="AGK-Status"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3152,42 +2967,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="03MY BFS_J"/>
-      <sheetName val="03POWER BASIC"/>
-      <sheetName val="03WDIN&amp;Swing_L_A"/>
-      <sheetName val="03SLAVE"/>
-      <sheetName val="04MOBIS-OEM"/>
-      <sheetName val="02DVD IS HU"/>
-      <sheetName val="03MUSIC B"/>
-      <sheetName val="Total"/>
-      <sheetName val="Person&amp;Device"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Risk(C)"/>
-      <sheetName val="Risk(J)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3216,36 +2996,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="使用指南"/>
-      <sheetName val="buglist(NAS)"/>
-      <sheetName val="buglist(AGK)"/>
-      <sheetName val="bug统计"/>
-      <sheetName val="bug状态统计"/>
-      <sheetName val="bug原因统计"/>
-      <sheetName val="分类数据"/>
-      <sheetName val="附录.缺陷类型定义及举例"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3286,36 +3037,205 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="变更履历"/>
-      <sheetName val="Struct"/>
-      <sheetName val="Number"/>
-      <sheetName val="Define"/>
-      <sheetName val="Module"/>
-      <sheetName val="Project_Schedule"/>
-      <sheetName val="Mail_list"/>
-      <sheetName val="Page_allocate"/>
-      <sheetName val="不具合预测及收速"/>
+      <sheetName val="03MY BFS_J"/>
+      <sheetName val="03POWER BASIC"/>
+      <sheetName val="03WDIN&amp;Swing_L_A"/>
+      <sheetName val="03SLAVE"/>
+      <sheetName val="04MOBIS-OEM"/>
+      <sheetName val="02DVD IS HU"/>
+      <sheetName val="03MUSIC B"/>
+      <sheetName val="Total"/>
+      <sheetName val="Person&amp;Device"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Risk(C)"/>
+      <sheetName val="Risk(J)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="封面"/>
+      <sheetName val="变更跟踪表"/>
+      <sheetName val="信息定义"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="发行控制"/>
+      <sheetName val="封面"/>
+      <sheetName val="1.概述"/>
+      <sheetName val="2.质量"/>
+      <sheetName val="3.工作量"/>
+      <sheetName val="4.进度"/>
+      <sheetName val="3.成本"/>
+      <sheetName val="4.工期"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Price不具合指摘"/>
+      <sheetName val="Swing不具合指摘"/>
+      <sheetName val="World不具合指摘"/>
+      <sheetName val="モデルデータ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cover"/>
+      <sheetName val="DevSts"/>
+      <sheetName val="Remark"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="記入方法"/>
+      <sheetName val="ﾕｰｻﾞｰ登録"/>
+      <sheetName val="不具合ﾘｽﾄ"/>
+      <sheetName val="不具合対策状況"/>
+      <sheetName val="工程別不具合件数"/>
+      <sheetName val="不具合発生要因"/>
+      <sheetName val="ﾓｼﾞｭｰﾙ・機能別不具合件数"/>
+      <sheetName val="ﾌｧｲﾙ別不具合件数"/>
+      <sheetName val="不具合曲線"/>
+      <sheetName val="不具合曲線 (2)"/>
+      <sheetName val="不具合曲線 (3)"/>
+      <sheetName val="問題点集計用紙"/>
+      <sheetName val="更新履歴"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Price不具合指摘"/>
+      <sheetName val="Swing不具合指摘"/>
+      <sheetName val="World不具合指摘"/>
+      <sheetName val="モデルデータ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="MOBIS_6MP3_ buglist(NAS)"/>
+      <sheetName val="bug原因统计"/>
+      <sheetName val="MOBIS_buglist(NAS-MOBIS)"/>
+      <sheetName val="数据汇总"/>
+      <sheetName val="Ver0.75_buglist(MOBIS)"/>
+      <sheetName val="bug统计"/>
+      <sheetName val="分类数据"/>
+      <sheetName val="附录.缺陷类型定义及举例"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3350,24 +3270,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="变更跟踪表"/>
-      <sheetName val="信息定义"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3414,15 +3317,36 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="引言"/>
-      <sheetName val="生产率"/>
-      <sheetName val="质量"/>
-      <sheetName val="工作量"/>
-      <sheetName val="进度"/>
+      <sheetName val="cover"/>
+      <sheetName val="DevSts"/>
+      <sheetName val="Remark"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="封面"/>
+      <sheetName val="使用指南"/>
+      <sheetName val="buglist(NAS)"/>
+      <sheetName val="buglist(AGK)"/>
+      <sheetName val="bug统计"/>
+      <sheetName val="bug状态统计"/>
+      <sheetName val="bug原因统计"/>
+      <sheetName val="分类数据"/>
+      <sheetName val="附录.缺陷类型定义及举例"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3430,12 +3354,148 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="03MY整体日程"/>
+      <sheetName val="WDin"/>
+      <sheetName val="Swing"/>
+      <sheetName val="Data"/>
+      <sheetName val="分类数据"/>
+      <sheetName val="RefData"/>
+      <sheetName val="各類ﾃﾞｰﾀ"/>
+      <sheetName val="O3 MY整体计划"/>
+      <sheetName val="DVD IS HU"/>
+      <sheetName val="OEM Mobis"/>
+      <sheetName val="Basic"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="变更履历"/>
+      <sheetName val="Struct"/>
+      <sheetName val="Number"/>
+      <sheetName val="Define"/>
+      <sheetName val="Module"/>
+      <sheetName val="Project_Schedule"/>
+      <sheetName val="Mail_list"/>
+      <sheetName val="Page_allocate"/>
+      <sheetName val="不具合预测及收速"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Face"/>
+      <sheetName val="Manual"/>
+      <sheetName val="NAS_Bug"/>
+      <sheetName val="NAS-Status"/>
+      <sheetName val="AGK_Bug"/>
+      <sheetName val="AGK-Status"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="封面"/>
+      <sheetName val="目录"/>
+      <sheetName val="信息定义"/>
+      <sheetName val="基本信息"/>
+      <sheetName val="目标及策略"/>
+      <sheetName val="缺陷与缺陷预防"/>
+      <sheetName val="工作量"/>
+      <sheetName val="进度"/>
+      <sheetName val="过程性能"/>
+      <sheetName val="需求管理"/>
+      <sheetName val="风险管理"/>
+      <sheetName val="App&amp;M56366&amp;Evol QCBug "/>
+      <sheetName val="总体总结"/>
+      <sheetName val="优秀实践"/>
+      <sheetName val="优秀产品"/>
+      <sheetName val="附录1"/>
+      <sheetName val="附录2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3476,34 +3536,28 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="发行控制"/>
-      <sheetName val="封面"/>
-      <sheetName val="1.概述"/>
-      <sheetName val="2.质量"/>
-      <sheetName val="3.工作量"/>
-      <sheetName val="4.进度"/>
-      <sheetName val="3.成本"/>
-      <sheetName val="4.工期"/>
+      <sheetName val="引言"/>
+      <sheetName val="生产率"/>
+      <sheetName val="质量"/>
+      <sheetName val="工作量"/>
+      <sheetName val="进度"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3523,66 +3577,6 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="03MY整体日程"/>
-      <sheetName val="WDin"/>
-      <sheetName val="Swing"/>
-      <sheetName val="Data"/>
-      <sheetName val="分类数据"/>
-      <sheetName val="RefData"/>
-      <sheetName val="各類ﾃﾞｰﾀ"/>
-      <sheetName val="O3 MY整体计划"/>
-      <sheetName val="DVD IS HU"/>
-      <sheetName val="OEM Mobis"/>
-      <sheetName val="Basic"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="MOBIS_6MP3_ buglist(NAS)"/>
-      <sheetName val="bug原因统计"/>
-      <sheetName val="MOBIS_buglist(NAS-MOBIS)"/>
-      <sheetName val="数据汇总"/>
-      <sheetName val="Ver0.75_buglist(MOBIS)"/>
-      <sheetName val="bug统计"/>
-      <sheetName val="分类数据"/>
-      <sheetName val="附录.缺陷类型定义及举例"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3909,408 +3903,408 @@
   <sheetPr/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="34" zoomScaleNormal="34" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75238095238095" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.87619047619048" style="125" customWidth="1"/>
-    <col min="2" max="2" width="10.3714285714286" style="125" customWidth="1"/>
-    <col min="3" max="3" width="9.87619047619048" style="125" customWidth="1"/>
-    <col min="4" max="4" width="8.75238095238095" style="125" customWidth="1"/>
-    <col min="5" max="5" width="10" style="125" customWidth="1"/>
-    <col min="6" max="6" width="9.75238095238095" style="125" customWidth="1"/>
-    <col min="7" max="7" width="9.5047619047619" style="125" customWidth="1"/>
-    <col min="8" max="8" width="16.752380952381" style="125" customWidth="1"/>
-    <col min="9" max="16384" width="8.75238095238095" style="125"/>
+    <col min="1" max="1" width="9.86666666666667" style="116" customWidth="1"/>
+    <col min="2" max="2" width="10.4" style="116" customWidth="1"/>
+    <col min="3" max="3" width="9.86666666666667" style="116" customWidth="1"/>
+    <col min="4" max="4" width="8.73333333333333" style="116" customWidth="1"/>
+    <col min="5" max="5" width="10" style="116" customWidth="1"/>
+    <col min="6" max="6" width="9.73333333333333" style="116" customWidth="1"/>
+    <col min="7" max="7" width="9.53333333333333" style="116" customWidth="1"/>
+    <col min="8" max="8" width="16.7333333333333" style="116" customWidth="1"/>
+    <col min="9" max="16384" width="8.73333333333333" style="116"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" customHeight="1" spans="1:1">
-      <c r="A1" s="126"/>
+      <c r="A1" s="117"/>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="126"/>
-    </row>
-    <row r="3" s="124" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A3" s="127" t="s">
+      <c r="A2" s="117"/>
+    </row>
+    <row r="3" s="115" customFormat="1" ht="23.25" spans="1:8">
+      <c r="A3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="134"/>
-    </row>
-    <row r="4" s="124" customFormat="1" ht="42" spans="1:8">
-      <c r="A4" s="130"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="142" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="125"/>
+    </row>
+    <row r="4" s="115" customFormat="1" ht="42" spans="1:8">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="133" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="124" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A5" s="130" t="s">
+    <row r="5" s="115" customFormat="1" ht="23.25" spans="1:8">
+      <c r="A5" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="143" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="143"/>
+      <c r="H5" s="134"/>
     </row>
     <row r="6" ht="21.75" spans="1:5">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-    </row>
-    <row r="7" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-    </row>
-    <row r="8" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A8" s="133"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-    </row>
-    <row r="9" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-    </row>
-    <row r="10" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-    </row>
-    <row r="11" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-    </row>
-    <row r="12" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-    </row>
-    <row r="13" s="124" customFormat="1" ht="47.25" spans="1:8">
-      <c r="A13" s="135" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+    </row>
+    <row r="7" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+    </row>
+    <row r="8" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+    </row>
+    <row r="9" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A9" s="124"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+    </row>
+    <row r="10" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+    </row>
+    <row r="11" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+    </row>
+    <row r="12" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" s="115" customFormat="1" ht="47.25" spans="1:8">
+      <c r="A13" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A14" s="133"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-    </row>
-    <row r="15" s="124" customFormat="1" ht="46.5" customHeight="1" spans="1:8">
-      <c r="A15" s="138" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+    </row>
+    <row r="14" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A14" s="124"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+    </row>
+    <row r="15" s="115" customFormat="1" ht="46.5" customHeight="1" spans="1:8">
+      <c r="A15" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-    </row>
-    <row r="16" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A16" s="133"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-    </row>
-    <row r="17" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A17" s="133"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-    </row>
-    <row r="18" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A18" s="133"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-    </row>
-    <row r="19" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-    </row>
-    <row r="20" s="124" customFormat="1" ht="22.5" spans="1:8">
-      <c r="A20" s="139" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+    </row>
+    <row r="16" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A16" s="124"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+    </row>
+    <row r="17" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+    </row>
+    <row r="18" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+    </row>
+    <row r="19" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+    </row>
+    <row r="20" s="115" customFormat="1" ht="22.5" spans="1:8">
+      <c r="A20" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-    </row>
-    <row r="21" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A21" s="133"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-    </row>
-    <row r="22" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A22" s="133"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-    </row>
-    <row r="23" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A23" s="133"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-    </row>
-    <row r="24" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A24" s="133"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-    </row>
-    <row r="25" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-    </row>
-    <row r="26" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A26" s="133"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-    </row>
-    <row r="27" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A27" s="133"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-    </row>
-    <row r="28" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-    </row>
-    <row r="29" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A29" s="133"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-    </row>
-    <row r="30" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A30" s="133"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-    </row>
-    <row r="31" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A31" s="133"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-    </row>
-    <row r="32" s="124" customFormat="1" ht="22.5" spans="1:8">
-      <c r="A32" s="141" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+    </row>
+    <row r="21" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+    </row>
+    <row r="22" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A22" s="124"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+    </row>
+    <row r="23" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+    </row>
+    <row r="24" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+    </row>
+    <row r="25" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A25" s="124"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+    </row>
+    <row r="26" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A26" s="124"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+    </row>
+    <row r="27" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A27" s="124"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+    </row>
+    <row r="28" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A28" s="124"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+    </row>
+    <row r="29" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A29" s="124"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+    </row>
+    <row r="30" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A30" s="124"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+    </row>
+    <row r="31" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A31" s="124"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+    </row>
+    <row r="32" s="115" customFormat="1" ht="22.5" spans="1:8">
+      <c r="A32" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-    </row>
-    <row r="33" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A33" s="133"/>
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-    </row>
-    <row r="34" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A34" s="133"/>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-    </row>
-    <row r="35" s="124" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A35" s="133"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-    </row>
-    <row r="36" s="124" customFormat="1" ht="28.5" spans="1:8">
-      <c r="A36" s="144" t="s">
+      <c r="B32" s="132"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+    </row>
+    <row r="33" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A33" s="124"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+    </row>
+    <row r="34" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A34" s="124"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+    </row>
+    <row r="35" s="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A35" s="124"/>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+    </row>
+    <row r="36" s="115" customFormat="1" ht="28.5" spans="1:8">
+      <c r="A36" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="144" t="s">
+      <c r="B36" s="136"/>
+      <c r="C36" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="144" t="s">
+      <c r="D36" s="136"/>
+      <c r="E36" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="149"/>
-      <c r="G36" s="144" t="s">
+      <c r="F36" s="140"/>
+      <c r="G36" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="150"/>
-    </row>
-    <row r="37" s="124" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A37" s="146" t="s">
+      <c r="H36" s="141"/>
+    </row>
+    <row r="37" s="115" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A37" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="146" t="s">
+      <c r="B37" s="138"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="151"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="126"/>
+      <c r="A38" s="117"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -4336,7 +4330,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="61" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4344,538 +4338,516 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="0.876190476190476" style="66" customWidth="1"/>
-    <col min="2" max="2" width="3.37142857142857" style="66" customWidth="1"/>
-    <col min="3" max="3" width="10.752380952381" style="67" customWidth="1"/>
-    <col min="4" max="4" width="23.3714285714286" style="66" customWidth="1"/>
-    <col min="5" max="5" width="7.37142857142857" style="66" customWidth="1"/>
-    <col min="6" max="6" width="12.752380952381" style="66" customWidth="1"/>
-    <col min="7" max="7" width="9.37142857142857" style="66" customWidth="1"/>
-    <col min="8" max="8" width="6.87619047619048" style="66" customWidth="1"/>
-    <col min="9" max="10" width="6.87619047619048" style="65" customWidth="1"/>
-    <col min="11" max="13" width="6.87619047619048" style="66" customWidth="1"/>
-    <col min="14" max="16" width="12" style="66" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="66"/>
+    <col min="1" max="1" width="0.866666666666667" style="61" customWidth="1"/>
+    <col min="2" max="2" width="3.4" style="61" customWidth="1"/>
+    <col min="3" max="3" width="10.7333333333333" style="62" customWidth="1"/>
+    <col min="4" max="4" width="23.4" style="61" customWidth="1"/>
+    <col min="5" max="5" width="7.4" style="61" customWidth="1"/>
+    <col min="6" max="6" width="12.7333333333333" style="61" customWidth="1"/>
+    <col min="7" max="7" width="9.4" style="61" customWidth="1"/>
+    <col min="8" max="8" width="6.86666666666667" style="61" customWidth="1"/>
+    <col min="9" max="10" width="6.86666666666667" style="60" customWidth="1"/>
+    <col min="11" max="13" width="6.86666666666667" style="61" customWidth="1"/>
+    <col min="14" max="16" width="12" style="61" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" ht="29.25" customHeight="1" spans="2:16">
-      <c r="B1" s="68" t="s">
+    <row r="1" s="55" customFormat="1" ht="29.25" customHeight="1" spans="2:16">
+      <c r="B1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" s="61" customFormat="1" ht="24.75" spans="1:16">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" s="56" customFormat="1" ht="24.75" spans="2:16">
+      <c r="B2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="111" t="s">
+      <c r="P2" s="102" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="62" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74">
+    <row r="3" s="57" customFormat="1" ht="13.5" spans="2:16">
+      <c r="B3" s="67">
         <v>1</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="68">
         <v>45396</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="84">
         <v>8</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="84">
         <v>0</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="84">
         <v>4</v>
       </c>
-      <c r="K3" s="93">
+      <c r="K3" s="84">
         <v>4</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="99">
         <v>4</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="92" t="s">
+      <c r="M3" s="103"/>
+      <c r="N3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="104" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A4" s="73"/>
-      <c r="B4" s="77">
+    <row r="4" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B4" s="70">
         <v>2</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="115"/>
-    </row>
-    <row r="5" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="106"/>
+    </row>
+    <row r="5" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B5" s="70">
         <v>3</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="115"/>
-    </row>
-    <row r="6" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A6" s="73"/>
-      <c r="B6" s="77">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="106"/>
+    </row>
+    <row r="6" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B6" s="70">
         <v>4</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="115"/>
-    </row>
-    <row r="7" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A7" s="73"/>
-      <c r="B7" s="77">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="106"/>
+    </row>
+    <row r="7" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B7" s="70">
         <v>5</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="115"/>
-    </row>
-    <row r="8" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A8" s="73"/>
-      <c r="B8" s="77">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="106"/>
+    </row>
+    <row r="8" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B8" s="70">
         <v>6</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="115"/>
-    </row>
-    <row r="9" s="63" customFormat="1" ht="12" customHeight="1" spans="1:16">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="106"/>
+    </row>
+    <row r="9" s="58" customFormat="1" ht="12" customHeight="1" spans="2:16">
+      <c r="B9" s="73">
         <v>7</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="116"/>
-    </row>
-    <row r="10" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A10" s="73"/>
-      <c r="B10" s="77">
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="107"/>
+    </row>
+    <row r="10" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B10" s="70">
         <v>8</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="116"/>
-    </row>
-    <row r="11" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A11" s="73"/>
-      <c r="B11" s="77">
+      <c r="C10" s="76"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="107"/>
+    </row>
+    <row r="11" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B11" s="70">
         <v>9</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="116"/>
-    </row>
-    <row r="12" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A12" s="73"/>
-      <c r="B12" s="77">
+      <c r="C11" s="76"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="107"/>
+    </row>
+    <row r="12" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B12" s="70">
         <v>10</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="116"/>
-    </row>
-    <row r="13" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A13" s="73"/>
-      <c r="B13" s="77">
+      <c r="C12" s="76"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="107"/>
+    </row>
+    <row r="13" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B13" s="70">
         <v>11</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="119"/>
-    </row>
-    <row r="14" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A14" s="73"/>
-      <c r="B14" s="77">
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="110"/>
+    </row>
+    <row r="14" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B14" s="70">
         <v>12</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="119"/>
-    </row>
-    <row r="15" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A15" s="73"/>
-      <c r="B15" s="77">
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="110"/>
+    </row>
+    <row r="15" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B15" s="70">
         <v>13</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="121"/>
-    </row>
-    <row r="16" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A16" s="73"/>
-      <c r="B16" s="77">
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="112"/>
+    </row>
+    <row r="16" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B16" s="70">
         <v>14</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121"/>
-    </row>
-    <row r="17" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A17" s="73"/>
-      <c r="B17" s="77">
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112"/>
+    </row>
+    <row r="17" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B17" s="70">
         <v>15</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="121"/>
-    </row>
-    <row r="18" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A18" s="73"/>
-      <c r="B18" s="77">
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="112"/>
+    </row>
+    <row r="18" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B18" s="70">
         <v>16</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="121"/>
-    </row>
-    <row r="19" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A19" s="73"/>
-      <c r="B19" s="77">
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="112"/>
+    </row>
+    <row r="19" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B19" s="70">
         <v>17</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="121"/>
-    </row>
-    <row r="20" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A20" s="73"/>
-      <c r="B20" s="77">
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="112"/>
+    </row>
+    <row r="20" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B20" s="70">
         <v>18</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="121"/>
-    </row>
-    <row r="21" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A21" s="73"/>
-      <c r="B21" s="77">
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="112"/>
+    </row>
+    <row r="21" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B21" s="70">
         <v>19</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
-    </row>
-    <row r="22" s="62" customFormat="1" ht="12.75" spans="1:16">
-      <c r="A22" s="73"/>
-      <c r="B22" s="77">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="112"/>
+    </row>
+    <row r="22" s="57" customFormat="1" ht="12.75" spans="2:16">
+      <c r="B22" s="70">
         <v>20</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="121"/>
-    </row>
-    <row r="23" s="64" customFormat="1" ht="13.5" spans="1:16">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88" t="s">
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="112"/>
+    </row>
+    <row r="23" s="59" customFormat="1" ht="13.5" spans="2:16">
+      <c r="B23" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="123"/>
-    </row>
-    <row r="24" s="65" customFormat="1"/>
-    <row r="25" s="65" customFormat="1"/>
-    <row r="26" s="65" customFormat="1"/>
-    <row r="27" s="65" customFormat="1"/>
-    <row r="28" s="65" customFormat="1"/>
-    <row r="29" s="65" customFormat="1"/>
-    <row r="30" s="65" customFormat="1"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="114"/>
+    </row>
+    <row r="24" s="60" customFormat="1"/>
+    <row r="25" s="60" customFormat="1"/>
+    <row r="26" s="60" customFormat="1"/>
+    <row r="27" s="60" customFormat="1"/>
+    <row r="28" s="60" customFormat="1"/>
+    <row r="29" s="60" customFormat="1"/>
+    <row r="30" s="60" customFormat="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4895,733 +4867,1041 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C18:C31"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5047619047619" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.4285714285714" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.8571428571429" style="6" customWidth="1"/>
-    <col min="5" max="5" width="49.8095238095238" style="8" customWidth="1"/>
-    <col min="6" max="8" width="3.5047619047619" style="6" customWidth="1"/>
-    <col min="9" max="9" width="4.5047619047619" style="6" customWidth="1"/>
-    <col min="10" max="12" width="3.5047619047619" style="6" customWidth="1"/>
-    <col min="13" max="14" width="7.57142857142857" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9.53333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.4" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.7333333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.8666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49.8" style="7" customWidth="1"/>
+    <col min="6" max="8" width="3.53333333333333" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.53333333333333" style="5" customWidth="1"/>
+    <col min="10" max="12" width="3.53333333333333" style="5" customWidth="1"/>
+    <col min="13" max="14" width="7.6" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.3" customHeight="1" spans="1:14">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="1" customFormat="1" ht="28.35" customHeight="1" spans="1:14">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="13.5" spans="1:14">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="14.25" spans="2:14">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="E3" s="38"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="53"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="12.75" spans="1:14">
-      <c r="A4" s="17" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:14">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="E3" s="34"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="12.75" spans="1:14">
+      <c r="A4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="39" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="12.75" spans="1:14">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+    <row r="5" s="3" customFormat="1" ht="12.75" spans="1:14">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A6" s="21">
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="57" t="s">
+      <c r="F6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A7" s="24">
+    <row r="7" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="58" t="s">
+      <c r="N7" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A8" s="24">
+    <row r="8" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A8" s="22">
         <v>3</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="58" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A9" s="24">
+    <row r="9" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A9" s="22">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="58" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A10" s="21">
+    <row r="10" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A10" s="19">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="26" t="s">
+      <c r="D10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="E10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A11" s="24">
+    <row r="11" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A12" s="24">
+    <row r="12" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A12" s="22">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="58" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N12" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A13" s="24">
+    <row r="13" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A13" s="22">
         <v>8</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="58" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A14" s="21">
+    <row r="14" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A14" s="19">
         <v>9</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="E14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A15" s="24">
+    <row r="15" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A15" s="22">
         <v>10</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="58" t="s">
+      <c r="N15" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A16" s="24">
+    <row r="16" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A16" s="22">
         <v>11</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="58" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A17" s="24">
+    <row r="17" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A17" s="22">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" s="58" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A18" s="21">
+    <row r="18" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A18" s="19">
         <v>13</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="26" t="s">
+      <c r="D18" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="58" t="s">
+      <c r="E18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A19" s="24">
+    <row r="19" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A19" s="22">
         <v>14</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A20" s="24">
+    <row r="20" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A20" s="22">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" s="58" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A21" s="24">
+    <row r="21" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A21" s="22">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="N21" s="58" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A22" s="21">
+    <row r="22" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A22" s="19">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="N22" s="58" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A23" s="24">
+    <row r="23" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A23" s="22">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="N23" s="58" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A24" s="24">
+    <row r="24" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A24" s="22">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="26" t="s">
+      <c r="D24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A25" s="24">
+    <row r="25" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A25" s="22">
         <v>20</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="58" t="s">
+      <c r="N25" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A26" s="21">
+    <row r="26" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A26" s="19">
         <v>21</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="26" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N26" s="58" t="s">
+      <c r="N26" s="53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" ht="40" customHeight="1" spans="1:14">
-      <c r="A27" s="24">
+    <row r="27" s="4" customFormat="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A27" s="22">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="32" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="59" t="s">
+      <c r="N27" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="24"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -5646,7 +5926,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="○ ：完成&#10;△ ：进行中&#10;× ：未着手&#10;N/A：不适用" sqref="F6:L27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="○ ：完成&#10;△ ：进行中&#10;× ：未着手&#10;N/A：不适用" sqref="F6:L6 F7:I7 J7:L7 F8:I8 J8:L8 F9:I9 J9:L9 F10:I10 J10:L10 F11:I11 J11:L11 F12:I12 J12:L12 F13:I13 J13:L13 F14:I14 J14:L14 F15:I15 J15:L15 F16:I16 J16:L16 F17:I17 J17:L17 F18:I18 J18:L18 F19:I19 J19:L19 F20:I20 J20:L20 F21:I21 J21:L21 F22:I22 J22:L22 F23:I23 J23:L23 F24:I24 J24:L24 F25:I25 J25:L25 F26:I26 J26:L26 F27:I27 J27:L27">
       <formula1>"○,△,×,N/A"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="集成测试" sqref="K5"/>
